--- a/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.64564207034049</v>
+        <v>14.46464705726222</v>
       </c>
       <c r="C2">
-        <v>11.24570943154254</v>
+        <v>6.832812953536477</v>
       </c>
       <c r="D2">
-        <v>4.311282431454079</v>
+        <v>5.092326877184861</v>
       </c>
       <c r="E2">
-        <v>6.443816541097366</v>
+        <v>8.153014006108634</v>
       </c>
       <c r="F2">
-        <v>31.15903556707982</v>
+        <v>20.571521409617</v>
       </c>
       <c r="G2">
-        <v>2.087510235692009</v>
+        <v>2.100805414554997</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.9939619165103</v>
+        <v>11.35496775598348</v>
       </c>
       <c r="L2">
-        <v>7.32071808276339</v>
+        <v>6.790624315876199</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.98548181047873</v>
+        <v>12.84254212637161</v>
       </c>
       <c r="O2">
-        <v>24.47030788171492</v>
+        <v>16.86854808483789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.19955765156268</v>
+        <v>13.56956352996238</v>
       </c>
       <c r="C3">
-        <v>10.57738206321792</v>
+        <v>6.825519245543898</v>
       </c>
       <c r="D3">
-        <v>4.401043503076822</v>
+        <v>4.969669167475834</v>
       </c>
       <c r="E3">
-        <v>6.434054992429564</v>
+        <v>8.019662984326537</v>
       </c>
       <c r="F3">
-        <v>29.96828491404577</v>
+        <v>20.22530710716618</v>
       </c>
       <c r="G3">
-        <v>2.096842828469813</v>
+        <v>2.105566715499156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.7287299314992</v>
+        <v>10.67230588215801</v>
       </c>
       <c r="L3">
-        <v>7.077646171288957</v>
+        <v>6.58754948909109</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.23662055364483</v>
+        <v>13.04711079097013</v>
       </c>
       <c r="O3">
-        <v>23.74385143939253</v>
+        <v>16.81042499587691</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.27559878125984</v>
+        <v>12.99350990028284</v>
       </c>
       <c r="C4">
-        <v>10.14785571012495</v>
+        <v>6.821709114624337</v>
       </c>
       <c r="D4">
-        <v>4.456510971755984</v>
+        <v>4.892249132754756</v>
       </c>
       <c r="E4">
-        <v>6.431594733366818</v>
+        <v>7.941705519600736</v>
       </c>
       <c r="F4">
-        <v>29.2471183390687</v>
+        <v>20.02679177799976</v>
       </c>
       <c r="G4">
-        <v>2.102716610289014</v>
+        <v>2.10858530341238</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.91042760329553</v>
+        <v>10.2303606534239</v>
       </c>
       <c r="L4">
-        <v>6.929456037725274</v>
+        <v>6.463149136385031</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.39412057731412</v>
+        <v>13.17553926600763</v>
       </c>
       <c r="O4">
-        <v>23.31285852510806</v>
+        <v>16.78748278114662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89018391893505</v>
+        <v>12.75223912070939</v>
       </c>
       <c r="C5">
-        <v>9.968005090825189</v>
+        <v>6.820323800328605</v>
       </c>
       <c r="D5">
-        <v>4.47922928726032</v>
+        <v>4.860194043196812</v>
       </c>
       <c r="E5">
-        <v>6.431451668405912</v>
+        <v>7.910940739154556</v>
       </c>
       <c r="F5">
-        <v>28.9560163699801</v>
+        <v>19.94944052802082</v>
       </c>
       <c r="G5">
-        <v>2.105148206167683</v>
+        <v>2.109839805969878</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.56641304460952</v>
+        <v>10.04455910205943</v>
       </c>
       <c r="L5">
-        <v>6.869397421929369</v>
+        <v>6.412598218120552</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.45915572992025</v>
+        <v>13.22860631082428</v>
       </c>
       <c r="O5">
-        <v>23.14107831583981</v>
+        <v>16.78123986457713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82565535434859</v>
+        <v>12.71178682162585</v>
       </c>
       <c r="C6">
-        <v>9.937850724552016</v>
+        <v>6.820103858045429</v>
       </c>
       <c r="D6">
-        <v>4.483009304720545</v>
+        <v>4.854841511374836</v>
       </c>
       <c r="E6">
-        <v>6.431478989913431</v>
+        <v>7.905893342762116</v>
       </c>
       <c r="F6">
-        <v>28.90785554490877</v>
+        <v>19.93681058276354</v>
       </c>
       <c r="G6">
-        <v>2.105554317678852</v>
+        <v>2.110049602826868</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.50864887983771</v>
+        <v>10.0133632966449</v>
       </c>
       <c r="L6">
-        <v>6.859446654059457</v>
+        <v>6.404215059327482</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.47000693397853</v>
+        <v>13.2374628440748</v>
       </c>
       <c r="O6">
-        <v>23.11278900756914</v>
+        <v>16.78038789045485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.27043667292673</v>
+        <v>12.99028225374252</v>
       </c>
       <c r="C7">
-        <v>10.14544965777824</v>
+        <v>6.821689755084476</v>
       </c>
       <c r="D7">
-        <v>4.45681686095845</v>
+        <v>4.891818841355889</v>
       </c>
       <c r="E7">
-        <v>6.431589361623266</v>
+        <v>7.941286530468164</v>
       </c>
       <c r="F7">
-        <v>29.24318079871899</v>
+        <v>20.02573423325086</v>
       </c>
       <c r="G7">
-        <v>2.10274924744605</v>
+        <v>2.108602122638671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.90583098342946</v>
+        <v>10.22787792690187</v>
       </c>
       <c r="L7">
-        <v>6.928644640790968</v>
+        <v>6.462466713133211</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.39499418156908</v>
+        <v>13.17625195731587</v>
       </c>
       <c r="O7">
-        <v>23.31052614778296</v>
+        <v>16.78738614287588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.15459794401204</v>
+        <v>14.16158379838438</v>
       </c>
       <c r="C8">
-        <v>11.01924672694561</v>
+        <v>6.830158954555519</v>
       </c>
       <c r="D8">
-        <v>4.342174850280653</v>
+        <v>5.050485940661311</v>
       </c>
       <c r="E8">
-        <v>6.439699749219044</v>
+        <v>8.106232216384909</v>
       </c>
       <c r="F8">
-        <v>30.74655268489851</v>
+        <v>20.4492373674439</v>
       </c>
       <c r="G8">
-        <v>2.090699503370178</v>
+        <v>2.102427663665725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.5662326691799</v>
+        <v>11.12432670182421</v>
       </c>
       <c r="L8">
-        <v>7.236724173112527</v>
+        <v>6.720585542760364</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.07140328550613</v>
+        <v>12.91250495025054</v>
       </c>
       <c r="O8">
-        <v>24.21674073019581</v>
+        <v>16.84580353762842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.72216079858399</v>
+        <v>16.38453055993539</v>
       </c>
       <c r="C9">
-        <v>12.58134502066692</v>
+        <v>6.852105646018525</v>
       </c>
       <c r="D9">
-        <v>4.118884815839038</v>
+        <v>5.343934929218073</v>
       </c>
       <c r="E9">
-        <v>6.484981123425158</v>
+        <v>8.459916966689752</v>
       </c>
       <c r="F9">
-        <v>33.76360356251693</v>
+        <v>21.39037986087872</v>
       </c>
       <c r="G9">
-        <v>2.068115977286756</v>
+        <v>2.091051461312686</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.4995611014205</v>
+        <v>12.70096600073744</v>
       </c>
       <c r="L9">
-        <v>7.846795611016077</v>
+        <v>7.226148041852626</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46200842230351</v>
+        <v>12.41665720449627</v>
       </c>
       <c r="O9">
-        <v>26.11072586669529</v>
+        <v>17.06572250002253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.19784511992768</v>
+        <v>17.88440342502899</v>
       </c>
       <c r="C10">
-        <v>13.6388978883015</v>
+        <v>6.871544055859291</v>
       </c>
       <c r="D10">
-        <v>3.953775505667299</v>
+        <v>5.547569148042524</v>
       </c>
       <c r="E10">
-        <v>6.538079726937496</v>
+        <v>8.736922850252345</v>
       </c>
       <c r="F10">
-        <v>36.01246896251229</v>
+        <v>22.14753342040785</v>
       </c>
       <c r="G10">
-        <v>2.052019274944551</v>
+        <v>2.083105903134988</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.46707106697485</v>
+        <v>13.74887742123713</v>
       </c>
       <c r="L10">
-        <v>8.295985360338261</v>
+        <v>7.593695686203773</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.02828506721064</v>
+        <v>12.06384980735681</v>
       </c>
       <c r="O10">
-        <v>27.57139768795008</v>
+        <v>17.29703091300799</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.27763208884666</v>
+        <v>18.53121660568939</v>
       </c>
       <c r="C11">
-        <v>14.1012287757926</v>
+        <v>6.881121925106943</v>
       </c>
       <c r="D11">
-        <v>3.877930049429038</v>
+        <v>5.637397150183621</v>
       </c>
       <c r="E11">
-        <v>6.566983497802112</v>
+        <v>8.866380770492192</v>
       </c>
       <c r="F11">
-        <v>37.04167599479555</v>
+        <v>22.5057620049223</v>
       </c>
       <c r="G11">
-        <v>2.044768441609589</v>
+        <v>2.079572983789425</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.3236091841883</v>
+        <v>14.2017946379403</v>
       </c>
       <c r="L11">
-        <v>8.500193456113474</v>
+        <v>7.759427290194182</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.83376164620539</v>
+        <v>11.90548520696709</v>
       </c>
       <c r="O11">
-        <v>28.25099084908043</v>
+        <v>17.41848961712366</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.68006457202284</v>
+        <v>18.77110704715476</v>
       </c>
       <c r="C12">
-        <v>14.27368924966292</v>
+        <v>6.884855901215395</v>
       </c>
       <c r="D12">
-        <v>3.849055876501204</v>
+        <v>5.670993571401071</v>
       </c>
       <c r="E12">
-        <v>6.578650294522655</v>
+        <v>8.915874964451996</v>
       </c>
       <c r="F12">
-        <v>37.43231586879273</v>
+        <v>22.64335267435396</v>
       </c>
       <c r="G12">
-        <v>2.042029708943893</v>
+        <v>2.078246203540575</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.64262279612945</v>
+        <v>14.36990413909118</v>
       </c>
       <c r="L12">
-        <v>8.577488791204596</v>
+        <v>7.821929923478634</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.76048489253701</v>
+        <v>11.84579162842822</v>
       </c>
       <c r="O12">
-        <v>28.51056112222356</v>
+        <v>17.46690012628329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.59367708361846</v>
+        <v>18.71966569888664</v>
       </c>
       <c r="C13">
-        <v>14.23666157643651</v>
+        <v>6.884046939095779</v>
       </c>
       <c r="D13">
-        <v>3.855282070446724</v>
+        <v>5.663776874357001</v>
       </c>
       <c r="E13">
-        <v>6.576104907552748</v>
+        <v>8.905194918657543</v>
       </c>
       <c r="F13">
-        <v>37.34814349210467</v>
+        <v>22.61363463025356</v>
       </c>
       <c r="G13">
-        <v>2.04261928926074</v>
+        <v>2.078531468596242</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.57415162574838</v>
+        <v>14.33384961792067</v>
       </c>
       <c r="L13">
-        <v>8.56084346683323</v>
+        <v>7.808480917505236</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77624941011949</v>
+        <v>11.85863595503614</v>
       </c>
       <c r="O13">
-        <v>28.45455791173097</v>
+        <v>17.45636530958213</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.31086857209372</v>
+        <v>18.55105327183464</v>
       </c>
       <c r="C14">
-        <v>14.11546906332749</v>
+        <v>6.881426968109469</v>
       </c>
       <c r="D14">
-        <v>3.875557913841857</v>
+        <v>5.640169640707722</v>
       </c>
       <c r="E14">
-        <v>6.567928640839899</v>
+        <v>8.87044337763238</v>
       </c>
       <c r="F14">
-        <v>37.07379576844325</v>
+        <v>22.51704310915813</v>
       </c>
       <c r="G14">
-        <v>2.044543004364339</v>
+        <v>2.079463611098386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.3499604328495</v>
+        <v>14.21569312668958</v>
       </c>
       <c r="L14">
-        <v>8.506553309107334</v>
+        <v>7.764574793690815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82772547392975</v>
+        <v>11.90056883732785</v>
       </c>
       <c r="O14">
-        <v>28.2723008665339</v>
+        <v>17.42242348863579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.13680586502764</v>
+        <v>18.44711825421602</v>
       </c>
       <c r="C15">
-        <v>14.04089743678237</v>
+        <v>6.879836142463376</v>
       </c>
       <c r="D15">
-        <v>3.887956011318622</v>
+        <v>5.625654452995741</v>
       </c>
       <c r="E15">
-        <v>6.563015599125569</v>
+        <v>8.849217727780568</v>
       </c>
       <c r="F15">
-        <v>36.90586890414697</v>
+        <v>22.45812893856018</v>
       </c>
       <c r="G15">
-        <v>2.045722142770795</v>
+        <v>2.080035995076183</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.21194772677889</v>
+        <v>14.1428766988528</v>
       </c>
       <c r="L15">
-        <v>8.473294382259503</v>
+        <v>7.737646406822646</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85930583761859</v>
+        <v>11.92628889924442</v>
       </c>
       <c r="O15">
-        <v>28.16095484414461</v>
+        <v>17.40195023783934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.12636224001246</v>
+        <v>17.84142359542416</v>
       </c>
       <c r="C16">
-        <v>13.60831278485444</v>
+        <v>6.870933023629252</v>
       </c>
       <c r="D16">
-        <v>3.958713452241235</v>
+        <v>5.541640805388445</v>
       </c>
       <c r="E16">
-        <v>6.536289611435545</v>
+        <v>8.728529722370029</v>
       </c>
       <c r="F16">
-        <v>35.94533167570294</v>
+        <v>22.12439595494154</v>
       </c>
       <c r="G16">
-        <v>2.052494301619608</v>
+        <v>2.083338372635102</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.41033610154477</v>
+        <v>13.71880119070224</v>
       </c>
       <c r="L16">
-        <v>8.282635680073973</v>
+        <v>7.582831189366241</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.04105220874594</v>
+        <v>12.07423958561476</v>
       </c>
       <c r="O16">
-        <v>27.52729218275097</v>
+        <v>17.28942711462282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.4947438443341</v>
+        <v>17.46080202876327</v>
       </c>
       <c r="C17">
-        <v>13.33818630513881</v>
+        <v>6.865660450722509</v>
       </c>
       <c r="D17">
-        <v>4.001900324608436</v>
+        <v>5.489370517562004</v>
       </c>
       <c r="E17">
-        <v>6.521137201409527</v>
+        <v>8.655356687763378</v>
       </c>
       <c r="F17">
-        <v>35.35764293211733</v>
+        <v>21.92316179692088</v>
       </c>
       <c r="G17">
-        <v>2.05666491424337</v>
+        <v>2.085384699753827</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.90884871735023</v>
+        <v>13.45256540765658</v>
       </c>
       <c r="L17">
-        <v>8.165624646453386</v>
+        <v>7.487446964248588</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.15324786085204</v>
+        <v>12.16552675735817</v>
       </c>
       <c r="O17">
-        <v>27.14245575329845</v>
+        <v>17.2246158756288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.1270703387238</v>
+        <v>17.23853473030405</v>
       </c>
       <c r="C18">
-        <v>13.18104544308928</v>
+        <v>6.862696922759428</v>
       </c>
       <c r="D18">
-        <v>4.02667409401111</v>
+        <v>5.459042740615307</v>
       </c>
       <c r="E18">
-        <v>6.512866489157227</v>
+        <v>8.613595316609866</v>
       </c>
       <c r="F18">
-        <v>35.02019710484481</v>
+        <v>21.80871858796723</v>
       </c>
       <c r="G18">
-        <v>2.059070701132333</v>
+        <v>2.086569411607248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.61677063331672</v>
+        <v>13.29719353228523</v>
       </c>
       <c r="L18">
-        <v>8.098310851496967</v>
+        <v>7.432448651998993</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.21804210936902</v>
+        <v>12.21823507509124</v>
       </c>
       <c r="O18">
-        <v>26.922526506874</v>
+        <v>17.18886168421174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.00182349056835</v>
+        <v>17.1627027665501</v>
       </c>
       <c r="C19">
-        <v>13.12753377085021</v>
+        <v>6.861705356272363</v>
       </c>
       <c r="D19">
-        <v>4.035052051852833</v>
+        <v>5.448729570229355</v>
       </c>
       <c r="E19">
-        <v>6.510141379531893</v>
+        <v>8.599512351035505</v>
       </c>
       <c r="F19">
-        <v>34.90604372613593</v>
+        <v>21.77019501642529</v>
       </c>
       <c r="G19">
-        <v>2.059886549464415</v>
+        <v>2.086971880067133</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.51724786742634</v>
+        <v>13.24420203912019</v>
       </c>
       <c r="L19">
-        <v>8.07551813427019</v>
+        <v>7.413805321890949</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.24002589116026</v>
+        <v>12.23611685962922</v>
       </c>
       <c r="O19">
-        <v>26.84830509678908</v>
+        <v>17.17701502271701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.56243289181863</v>
+        <v>17.50166549711622</v>
       </c>
       <c r="C20">
-        <v>13.36712449952314</v>
+        <v>6.866214562759622</v>
       </c>
       <c r="D20">
-        <v>3.997310182192641</v>
+        <v>5.494962149411827</v>
       </c>
       <c r="E20">
-        <v>6.52270391904623</v>
+        <v>8.663112540221206</v>
       </c>
       <c r="F20">
-        <v>35.42014381563243</v>
+        <v>21.94444917015659</v>
       </c>
       <c r="G20">
-        <v>2.056220247740777</v>
+        <v>2.085166070602152</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.96260783251174</v>
+        <v>13.4811383777838</v>
       </c>
       <c r="L20">
-        <v>8.178082076527424</v>
+        <v>7.49761518352091</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.14127741767175</v>
+        <v>12.15578835470644</v>
       </c>
       <c r="O20">
-        <v>27.18327522877778</v>
+        <v>17.23135685586051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.39410973523593</v>
+        <v>18.60071522905726</v>
       </c>
       <c r="C21">
-        <v>14.15113645053959</v>
+        <v>6.882193600630633</v>
       </c>
       <c r="D21">
-        <v>3.869606968043889</v>
+        <v>5.647115161287798</v>
       </c>
       <c r="E21">
-        <v>6.570310305312743</v>
+        <v>8.880638145282196</v>
       </c>
       <c r="F21">
-        <v>37.15435340968165</v>
+        <v>22.54536216906335</v>
       </c>
       <c r="G21">
-        <v>2.043977800781478</v>
+        <v>2.079189523618935</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.41595405725545</v>
+        <v>14.25049065698626</v>
       </c>
       <c r="L21">
-        <v>8.522500619825166</v>
+        <v>7.777478372961542</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.81259534965953</v>
+        <v>11.88824490473366</v>
       </c>
       <c r="O21">
-        <v>28.32577324434852</v>
+        <v>17.43232680137494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.55368727396903</v>
+        <v>19.28963854463176</v>
       </c>
       <c r="C22">
-        <v>14.64834621993521</v>
+        <v>6.893261495734613</v>
       </c>
       <c r="D22">
-        <v>3.785226745595473</v>
+        <v>5.744104591511777</v>
       </c>
       <c r="E22">
-        <v>6.605649438309859</v>
+        <v>9.025540378424461</v>
       </c>
       <c r="F22">
-        <v>38.29307479983701</v>
+        <v>22.94936512804459</v>
       </c>
       <c r="G22">
-        <v>2.036015646460496</v>
+        <v>2.075347628976708</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.33478627396048</v>
+        <v>14.73349926388978</v>
       </c>
       <c r="L22">
-        <v>8.747403047652103</v>
+        <v>7.958874512971255</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.60002386118842</v>
+        <v>11.71498098961488</v>
       </c>
       <c r="O22">
-        <v>29.08547472574179</v>
+        <v>17.57779402570999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.93815406729208</v>
+        <v>18.92461430999229</v>
       </c>
       <c r="C23">
-        <v>14.38433403207411</v>
+        <v>6.887296716207378</v>
       </c>
       <c r="D23">
-        <v>3.830363252130454</v>
+        <v>5.692568647998971</v>
       </c>
       <c r="E23">
-        <v>6.586388206209856</v>
+        <v>8.947960640675312</v>
       </c>
       <c r="F23">
-        <v>37.68480761642139</v>
+        <v>22.73272479777446</v>
       </c>
       <c r="G23">
-        <v>2.040262821349669</v>
+        <v>2.077392484488592</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.84715613998027</v>
+        <v>14.47751308649225</v>
       </c>
       <c r="L23">
-        <v>8.62738786598119</v>
+        <v>7.862211535205065</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.7132757267766</v>
+        <v>11.80732019487193</v>
       </c>
       <c r="O23">
-        <v>28.67878944619681</v>
+        <v>17.49883724033152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.53184485432968</v>
+        <v>17.48320185136273</v>
       </c>
       <c r="C24">
-        <v>13.35404728391228</v>
+        <v>6.865963837796382</v>
       </c>
       <c r="D24">
-        <v>3.999385553204982</v>
+        <v>5.492435033880253</v>
       </c>
       <c r="E24">
-        <v>6.521994236493987</v>
+        <v>8.659605161907267</v>
       </c>
       <c r="F24">
-        <v>35.39188584461981</v>
+        <v>21.934821254834</v>
       </c>
       <c r="G24">
-        <v>2.056421256160084</v>
+        <v>2.08526488709108</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.938315082355</v>
+        <v>13.46822773260387</v>
       </c>
       <c r="L24">
-        <v>8.172450203749056</v>
+        <v>7.493018628469768</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.14668834598677</v>
+        <v>12.16019037998768</v>
       </c>
       <c r="O24">
-        <v>27.16481664058866</v>
+        <v>17.22830457207726</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.76803914692186</v>
+        <v>15.80033990962272</v>
       </c>
       <c r="C25">
-        <v>12.17479881572316</v>
+        <v>6.845591140024858</v>
       </c>
       <c r="D25">
-        <v>4.179320429633446</v>
+        <v>5.266571828468146</v>
       </c>
       <c r="E25">
-        <v>6.469392528791169</v>
+        <v>8.361127056284827</v>
       </c>
       <c r="F25">
-        <v>32.9412430070512</v>
+        <v>21.12408440252942</v>
       </c>
       <c r="G25">
-        <v>2.074127313588134</v>
+        <v>2.094054040800821</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.73966344135647</v>
+        <v>12.29387589511987</v>
       </c>
       <c r="L25">
-        <v>7.681428889799941</v>
+        <v>7.089828915185254</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.6243152445284</v>
+        <v>12.54866341233165</v>
       </c>
       <c r="O25">
-        <v>25.5861293325454</v>
+        <v>16.99436430464068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.46464705726222</v>
+        <v>13.58535077072318</v>
       </c>
       <c r="C2">
-        <v>6.832812953536477</v>
+        <v>7.357666879363463</v>
       </c>
       <c r="D2">
-        <v>5.092326877184861</v>
+        <v>5.282853307845138</v>
       </c>
       <c r="E2">
-        <v>8.153014006108634</v>
+        <v>9.230425737949806</v>
       </c>
       <c r="F2">
-        <v>20.571521409617</v>
+        <v>16.98149094685708</v>
       </c>
       <c r="G2">
-        <v>2.100805414554997</v>
+        <v>20.70283608830734</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.627983731662595</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.644662753647474</v>
       </c>
       <c r="K2">
-        <v>11.35496775598348</v>
+        <v>14.07357105166397</v>
       </c>
       <c r="L2">
-        <v>6.790624315876199</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.20567965820916</v>
       </c>
       <c r="N2">
-        <v>12.84254212637161</v>
+        <v>7.548790935505603</v>
       </c>
       <c r="O2">
-        <v>16.86854808483789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.22625876539172</v>
+      </c>
+      <c r="Q2">
+        <v>13.86143753423887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.56956352996238</v>
+        <v>12.69706064953216</v>
       </c>
       <c r="C3">
-        <v>6.825519245543898</v>
+        <v>7.271295258251197</v>
       </c>
       <c r="D3">
-        <v>4.969669167475834</v>
+        <v>5.065458674221961</v>
       </c>
       <c r="E3">
-        <v>8.019662984326537</v>
+        <v>8.992924329769476</v>
       </c>
       <c r="F3">
-        <v>20.22530710716618</v>
+        <v>16.70535007135215</v>
       </c>
       <c r="G3">
-        <v>2.105566715499156</v>
+        <v>20.40060353317178</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.809113034399142</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.676250074416812</v>
       </c>
       <c r="K3">
-        <v>10.67230588215801</v>
+        <v>14.13352711052038</v>
       </c>
       <c r="L3">
-        <v>6.58754948909109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.610033564758</v>
       </c>
       <c r="N3">
-        <v>13.04711079097013</v>
+        <v>7.283992255512035</v>
       </c>
       <c r="O3">
-        <v>16.81042499587691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.35871068162425</v>
+      </c>
+      <c r="Q3">
+        <v>13.84025277507927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.99350990028284</v>
+        <v>12.11841901460603</v>
       </c>
       <c r="C4">
-        <v>6.821709114624337</v>
+        <v>7.217057447228342</v>
       </c>
       <c r="D4">
-        <v>4.892249132754756</v>
+        <v>4.926235490555591</v>
       </c>
       <c r="E4">
-        <v>7.941705519600736</v>
+        <v>8.843487414782004</v>
       </c>
       <c r="F4">
-        <v>20.02679177799976</v>
+        <v>16.54433580948406</v>
       </c>
       <c r="G4">
-        <v>2.10858530341238</v>
+        <v>20.22834432970035</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.924503098773465</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.699132198685618</v>
       </c>
       <c r="K4">
-        <v>10.2303606534239</v>
+        <v>14.1767540382237</v>
       </c>
       <c r="L4">
-        <v>6.463149136385031</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.22571950227613</v>
       </c>
       <c r="N4">
-        <v>13.17553926600763</v>
+        <v>7.116248833634032</v>
       </c>
       <c r="O4">
-        <v>16.78748278114662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.44214686723389</v>
+      </c>
+      <c r="Q4">
+        <v>13.83482754050146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75223912070939</v>
+        <v>11.87424007125608</v>
       </c>
       <c r="C5">
-        <v>6.820323800328605</v>
+        <v>7.194656457003893</v>
       </c>
       <c r="D5">
-        <v>4.860194043196812</v>
+        <v>4.868097860746259</v>
       </c>
       <c r="E5">
-        <v>7.910940739154556</v>
+        <v>8.78173090296359</v>
       </c>
       <c r="F5">
-        <v>19.94944052802082</v>
+        <v>16.48090487445681</v>
       </c>
       <c r="G5">
-        <v>2.109839805969878</v>
+        <v>20.16149176702429</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.972587516855201</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.709312745425544</v>
       </c>
       <c r="K5">
-        <v>10.04455910205943</v>
+        <v>14.19593638316414</v>
       </c>
       <c r="L5">
-        <v>6.412598218120552</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.0645172499996</v>
       </c>
       <c r="N5">
-        <v>13.22860631082428</v>
+        <v>7.046663992124431</v>
       </c>
       <c r="O5">
-        <v>16.78123986457713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.47668517646162</v>
+      </c>
+      <c r="Q5">
+        <v>13.83447390817842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71178682162585</v>
+        <v>11.83318775454199</v>
       </c>
       <c r="C6">
-        <v>6.820103858045429</v>
+        <v>7.190918889430015</v>
       </c>
       <c r="D6">
-        <v>4.854841511374836</v>
+        <v>4.858360725021414</v>
       </c>
       <c r="E6">
-        <v>7.905893342762116</v>
+        <v>8.771425824770995</v>
       </c>
       <c r="F6">
-        <v>19.93681058276354</v>
+        <v>16.47050504424836</v>
       </c>
       <c r="G6">
-        <v>2.110049602826868</v>
+        <v>20.15059262387015</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.980636385974115</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.711054305800836</v>
       </c>
       <c r="K6">
-        <v>10.0133632966449</v>
+        <v>14.1992149253398</v>
       </c>
       <c r="L6">
-        <v>6.404215059327482</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.0374752160018</v>
       </c>
       <c r="N6">
-        <v>13.2374628440748</v>
+        <v>7.035037459096645</v>
       </c>
       <c r="O6">
-        <v>16.78038789045485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.48245288933316</v>
+      </c>
+      <c r="Q6">
+        <v>13.83452588762413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.99028225374252</v>
+        <v>12.11515988086359</v>
       </c>
       <c r="C7">
-        <v>6.821689755084476</v>
+        <v>7.216756542701414</v>
       </c>
       <c r="D7">
-        <v>4.891818841355889</v>
+        <v>4.925457048622119</v>
       </c>
       <c r="E7">
-        <v>7.941286530468164</v>
+        <v>8.842657960023871</v>
       </c>
       <c r="F7">
-        <v>20.02573423325086</v>
+        <v>16.54347147246526</v>
       </c>
       <c r="G7">
-        <v>2.108602122638671</v>
+        <v>20.22742920384536</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.925147266293999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.699266059030036</v>
       </c>
       <c r="K7">
-        <v>10.22787792690187</v>
+        <v>14.17700645281761</v>
       </c>
       <c r="L7">
-        <v>6.462466713133211</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.22356393953037</v>
       </c>
       <c r="N7">
-        <v>13.17625195731587</v>
+        <v>7.115315264468195</v>
       </c>
       <c r="O7">
-        <v>16.78738614287588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.44261047819122</v>
+      </c>
+      <c r="Q7">
+        <v>13.83481531781441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.16158379838438</v>
+        <v>13.28595035640278</v>
       </c>
       <c r="C8">
-        <v>6.830158954555519</v>
+        <v>7.328138626191551</v>
       </c>
       <c r="D8">
-        <v>5.050485940661311</v>
+        <v>5.209110008013026</v>
       </c>
       <c r="E8">
-        <v>8.106232216384909</v>
+        <v>9.149312252306341</v>
       </c>
       <c r="F8">
-        <v>20.4492373674439</v>
+        <v>16.88452983505431</v>
       </c>
       <c r="G8">
-        <v>2.102427663665725</v>
+        <v>20.59586483038432</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.689577709301939</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.65481745029776</v>
       </c>
       <c r="K8">
-        <v>11.12432670182421</v>
+        <v>14.09288487865778</v>
       </c>
       <c r="L8">
-        <v>6.720585542760364</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.00420193336371</v>
       </c>
       <c r="N8">
-        <v>12.91250495025054</v>
+        <v>7.458597254251277</v>
       </c>
       <c r="O8">
-        <v>16.84580353762842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.27149434161887</v>
+      </c>
+      <c r="Q8">
+        <v>13.85252999597228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.38453055993539</v>
+        <v>15.3193804436526</v>
       </c>
       <c r="C9">
-        <v>6.852105646018525</v>
+        <v>7.536828261902394</v>
       </c>
       <c r="D9">
-        <v>5.343934929218073</v>
+        <v>5.718298706570837</v>
       </c>
       <c r="E9">
-        <v>8.459916966689752</v>
+        <v>9.720092337014256</v>
       </c>
       <c r="F9">
-        <v>21.39037986087872</v>
+        <v>17.61916429064271</v>
       </c>
       <c r="G9">
-        <v>2.091051461312686</v>
+        <v>21.42360785972192</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.853678427970472</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.596292008521942</v>
       </c>
       <c r="K9">
-        <v>12.70096600073744</v>
+        <v>13.9809170330012</v>
       </c>
       <c r="L9">
-        <v>7.226148041852626</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.38482483406889</v>
       </c>
       <c r="N9">
-        <v>12.41665720449627</v>
+        <v>8.088229303146178</v>
       </c>
       <c r="O9">
-        <v>17.06572250002253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.95236235601806</v>
+      </c>
+      <c r="Q9">
+        <v>13.94957102963129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.88440342502899</v>
+        <v>16.60610987085769</v>
       </c>
       <c r="C10">
-        <v>6.871544055859291</v>
+        <v>7.715548482517747</v>
       </c>
       <c r="D10">
-        <v>5.547569148042524</v>
+        <v>6.078468659172344</v>
       </c>
       <c r="E10">
-        <v>8.736922850252345</v>
+        <v>9.957499535457924</v>
       </c>
       <c r="F10">
-        <v>22.14753342040785</v>
+        <v>18.12058539522561</v>
       </c>
       <c r="G10">
-        <v>2.083105903134988</v>
+        <v>21.96082179370583</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.133824778029749</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.550756468918232</v>
       </c>
       <c r="K10">
-        <v>13.74887742123713</v>
+        <v>13.87693495412314</v>
       </c>
       <c r="L10">
-        <v>7.593695686203773</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.29972223911073</v>
       </c>
       <c r="N10">
-        <v>12.06384980735681</v>
+        <v>8.392139135558589</v>
       </c>
       <c r="O10">
-        <v>17.29703091300799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.73107782134582</v>
+      </c>
+      <c r="Q10">
+        <v>14.00646057329591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.53121660568939</v>
+        <v>16.74053710532837</v>
       </c>
       <c r="C11">
-        <v>6.881121925106943</v>
+        <v>8.103238016127474</v>
       </c>
       <c r="D11">
-        <v>5.637397150183621</v>
+        <v>6.377722997117536</v>
       </c>
       <c r="E11">
-        <v>8.866380770492192</v>
+        <v>8.777943401107411</v>
       </c>
       <c r="F11">
-        <v>22.5057620049223</v>
+        <v>17.69874562356959</v>
       </c>
       <c r="G11">
-        <v>2.079572983789425</v>
+        <v>21.05609498302274</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.967550220579164</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.347779171817379</v>
       </c>
       <c r="K11">
-        <v>14.2017946379403</v>
+        <v>13.34693492155806</v>
       </c>
       <c r="L11">
-        <v>7.759427290194182</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.65157040161097</v>
       </c>
       <c r="N11">
-        <v>11.90548520696709</v>
+        <v>7.446488104450308</v>
       </c>
       <c r="O11">
-        <v>17.41848961712366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.67460423614229</v>
+      </c>
+      <c r="Q11">
+        <v>13.56052647092375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77110704715476</v>
+        <v>16.59042164998462</v>
       </c>
       <c r="C12">
-        <v>6.884855901215395</v>
+        <v>8.436725535621918</v>
       </c>
       <c r="D12">
-        <v>5.670993571401071</v>
+        <v>6.559345568160241</v>
       </c>
       <c r="E12">
-        <v>8.915874964451996</v>
+        <v>7.909056975030371</v>
       </c>
       <c r="F12">
-        <v>22.64335267435396</v>
+        <v>17.22099120504003</v>
       </c>
       <c r="G12">
-        <v>2.078246203540575</v>
+        <v>20.15553494151427</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.205621016843356</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.182158585422371</v>
       </c>
       <c r="K12">
-        <v>14.36990413909118</v>
+        <v>12.9227165332272</v>
       </c>
       <c r="L12">
-        <v>7.821929923478634</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.76268419342665</v>
       </c>
       <c r="N12">
-        <v>11.84579162842822</v>
+        <v>6.634547167913661</v>
       </c>
       <c r="O12">
-        <v>17.46690012628329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.68564510835902</v>
+      </c>
+      <c r="Q12">
+        <v>13.16243617495561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71966569888664</v>
+        <v>16.20777440287507</v>
       </c>
       <c r="C13">
-        <v>6.884046939095779</v>
+        <v>8.743137824358422</v>
       </c>
       <c r="D13">
-        <v>5.663776874357001</v>
+        <v>6.66519263685676</v>
       </c>
       <c r="E13">
-        <v>8.905194918657543</v>
+        <v>7.280834239414361</v>
       </c>
       <c r="F13">
-        <v>22.61363463025356</v>
+        <v>16.66170350580354</v>
       </c>
       <c r="G13">
-        <v>2.078531468596242</v>
+        <v>19.18902420326504</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.520589092461284</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.035196942582349</v>
       </c>
       <c r="K13">
-        <v>14.33384961792067</v>
+        <v>12.55654725259614</v>
       </c>
       <c r="L13">
-        <v>7.808480917505236</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.6986032640726</v>
       </c>
       <c r="N13">
-        <v>11.85863595503614</v>
+        <v>5.887680242224478</v>
       </c>
       <c r="O13">
-        <v>17.45636530958213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.74545095401518</v>
+      </c>
+      <c r="Q13">
+        <v>12.77524602343048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.55105327183464</v>
+        <v>15.82916325104836</v>
       </c>
       <c r="C14">
-        <v>6.881426968109469</v>
+        <v>8.94826524924534</v>
       </c>
       <c r="D14">
-        <v>5.640169640707722</v>
+        <v>6.706135377697893</v>
       </c>
       <c r="E14">
-        <v>8.87044337763238</v>
+        <v>7.018910051357713</v>
       </c>
       <c r="F14">
-        <v>22.51704310915813</v>
+        <v>16.23051446026615</v>
       </c>
       <c r="G14">
-        <v>2.079463611098386</v>
+        <v>18.48010949787107</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.466559552346086</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.94156740361401</v>
       </c>
       <c r="K14">
-        <v>14.21569312668958</v>
+        <v>12.33108228476225</v>
       </c>
       <c r="L14">
-        <v>7.764574793690815</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.57379612197374</v>
       </c>
       <c r="N14">
-        <v>11.90056883732785</v>
+        <v>5.422360048895215</v>
       </c>
       <c r="O14">
-        <v>17.42242348863579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.80915762255932</v>
+      </c>
+      <c r="Q14">
+        <v>12.51059390884965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.44711825421602</v>
+        <v>15.68553828803497</v>
       </c>
       <c r="C15">
-        <v>6.879836142463376</v>
+        <v>8.986911101736295</v>
       </c>
       <c r="D15">
-        <v>5.625654452995741</v>
+        <v>6.699678943538369</v>
       </c>
       <c r="E15">
-        <v>8.849217727780568</v>
+        <v>6.981348988859491</v>
       </c>
       <c r="F15">
-        <v>22.45812893856018</v>
+        <v>16.10984816591816</v>
       </c>
       <c r="G15">
-        <v>2.080035995076183</v>
+        <v>18.29648110491553</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.682337195185379</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.923470269941498</v>
       </c>
       <c r="K15">
-        <v>14.1428766988528</v>
+        <v>12.28912811570699</v>
       </c>
       <c r="L15">
-        <v>7.737646406822646</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.50533666413119</v>
       </c>
       <c r="N15">
-        <v>11.92628889924442</v>
+        <v>5.317733380266679</v>
       </c>
       <c r="O15">
-        <v>17.40195023783934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.83292881186329</v>
+      </c>
+      <c r="Q15">
+        <v>12.45021952387104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.84142359542416</v>
+        <v>15.20607860612893</v>
       </c>
       <c r="C16">
-        <v>6.870933023629252</v>
+        <v>8.846895270938884</v>
       </c>
       <c r="D16">
-        <v>5.541640805388445</v>
+        <v>6.535292385910449</v>
       </c>
       <c r="E16">
-        <v>8.728529722370029</v>
+        <v>6.986551116927346</v>
       </c>
       <c r="F16">
-        <v>22.12439595494154</v>
+        <v>15.98668466485779</v>
       </c>
       <c r="G16">
-        <v>2.083338372635102</v>
+        <v>18.23053532505469</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.443272965464708</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.972317719768849</v>
       </c>
       <c r="K16">
-        <v>13.71880119070224</v>
+        <v>12.41123367741089</v>
       </c>
       <c r="L16">
-        <v>7.582831189366241</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.13922612954837</v>
       </c>
       <c r="N16">
-        <v>12.07423958561476</v>
+        <v>5.313711672121661</v>
       </c>
       <c r="O16">
-        <v>17.28942711462282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.90518486117199</v>
+      </c>
+      <c r="Q16">
+        <v>12.50034086727674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.46080202876327</v>
+        <v>15.04246724470752</v>
       </c>
       <c r="C17">
-        <v>6.865660450722509</v>
+        <v>8.625569544730336</v>
       </c>
       <c r="D17">
-        <v>5.489370517562004</v>
+        <v>6.384123807567193</v>
       </c>
       <c r="E17">
-        <v>8.655356687763378</v>
+        <v>7.098381890344434</v>
       </c>
       <c r="F17">
-        <v>21.92316179692088</v>
+        <v>16.12851811202031</v>
       </c>
       <c r="G17">
-        <v>2.085384699753827</v>
+        <v>18.56604195552801</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.689457480806836</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.059774612134499</v>
       </c>
       <c r="K17">
-        <v>13.45256540765658</v>
+        <v>12.62271519296377</v>
       </c>
       <c r="L17">
-        <v>7.487446964248588</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.92200244415294</v>
       </c>
       <c r="N17">
-        <v>12.16552675735817</v>
+        <v>5.546470148466136</v>
       </c>
       <c r="O17">
-        <v>17.2246158756288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.92831557071627</v>
+      </c>
+      <c r="Q17">
+        <v>12.68063391996702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.23853473030405</v>
+        <v>15.14059264857757</v>
       </c>
       <c r="C18">
-        <v>6.862696922759428</v>
+        <v>8.325784879811529</v>
       </c>
       <c r="D18">
-        <v>5.459042740615307</v>
+        <v>6.229727980202399</v>
       </c>
       <c r="E18">
-        <v>8.613595316609866</v>
+        <v>7.481064438184669</v>
       </c>
       <c r="F18">
-        <v>21.80871858796723</v>
+        <v>16.50743971682291</v>
       </c>
       <c r="G18">
-        <v>2.086569411607248</v>
+        <v>19.27605058578888</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.444376094423617</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.189177454304534</v>
       </c>
       <c r="K18">
-        <v>13.29719353228523</v>
+        <v>12.93928255887184</v>
       </c>
       <c r="L18">
-        <v>7.432448651998993</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.81359768498898</v>
       </c>
       <c r="N18">
-        <v>12.21823507509124</v>
+        <v>6.077601863529574</v>
       </c>
       <c r="O18">
-        <v>17.18886168421174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.91678828924423</v>
+      </c>
+      <c r="Q18">
+        <v>12.99031184035018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.1627027665501</v>
+        <v>15.44095473069637</v>
       </c>
       <c r="C19">
-        <v>6.861705356272363</v>
+        <v>8.011594778389838</v>
       </c>
       <c r="D19">
-        <v>5.448729570229355</v>
+        <v>6.087005765095435</v>
       </c>
       <c r="E19">
-        <v>8.599512351035505</v>
+        <v>8.255616297198786</v>
       </c>
       <c r="F19">
-        <v>21.77019501642529</v>
+        <v>17.04177476770583</v>
       </c>
       <c r="G19">
-        <v>2.086971880067133</v>
+        <v>20.22828677805618</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.067497248819</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.342952296907136</v>
       </c>
       <c r="K19">
-        <v>13.24420203912019</v>
+        <v>13.32688932403545</v>
       </c>
       <c r="L19">
-        <v>7.413805321890949</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.80295629710858</v>
       </c>
       <c r="N19">
-        <v>12.23611685962922</v>
+        <v>6.880595180618515</v>
       </c>
       <c r="O19">
-        <v>17.17701502271701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.88462697617142</v>
+      </c>
+      <c r="Q19">
+        <v>13.38131523862143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.50166549711622</v>
+        <v>16.27611575954743</v>
       </c>
       <c r="C20">
-        <v>6.866214562759622</v>
+        <v>7.670267262157315</v>
       </c>
       <c r="D20">
-        <v>5.494962149411827</v>
+        <v>5.986828407293812</v>
       </c>
       <c r="E20">
-        <v>8.663112540221206</v>
+        <v>9.888705570440443</v>
       </c>
       <c r="F20">
-        <v>21.94444917015659</v>
+        <v>17.98302319244048</v>
       </c>
       <c r="G20">
-        <v>2.085166070602152</v>
+        <v>21.80932210475635</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.059530312977858</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.560483693539878</v>
       </c>
       <c r="K20">
-        <v>13.4811383777838</v>
+        <v>13.89933268642571</v>
       </c>
       <c r="L20">
-        <v>7.49761518352091</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.06566637921932</v>
       </c>
       <c r="N20">
-        <v>12.15578835470644</v>
+        <v>8.307880597399045</v>
       </c>
       <c r="O20">
-        <v>17.23135685586051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.78856088498864</v>
+      </c>
+      <c r="Q20">
+        <v>13.98625724631325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60071522905726</v>
+        <v>17.29036484312813</v>
       </c>
       <c r="C21">
-        <v>6.882193600630633</v>
+        <v>7.756786124891206</v>
       </c>
       <c r="D21">
-        <v>5.647115161287798</v>
+        <v>6.227764681421106</v>
       </c>
       <c r="E21">
-        <v>8.880638145282196</v>
+        <v>10.31388044652941</v>
       </c>
       <c r="F21">
-        <v>22.54536216906335</v>
+        <v>18.49576012876624</v>
       </c>
       <c r="G21">
-        <v>2.079189523618935</v>
+        <v>22.44858994871212</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.284510520821621</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.564941874265317</v>
       </c>
       <c r="K21">
-        <v>14.25049065698626</v>
+        <v>13.91973899832943</v>
       </c>
       <c r="L21">
-        <v>7.777478372961542</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.74549133259495</v>
       </c>
       <c r="N21">
-        <v>11.88824490473366</v>
+        <v>8.731839889066945</v>
       </c>
       <c r="O21">
-        <v>17.43232680137494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.61621210015652</v>
+      </c>
+      <c r="Q21">
+        <v>14.12901061292601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.28963854463176</v>
+        <v>17.8996298527555</v>
       </c>
       <c r="C22">
-        <v>6.893261495734613</v>
+        <v>7.828173692599817</v>
       </c>
       <c r="D22">
-        <v>5.744104591511777</v>
+        <v>6.387837214364516</v>
       </c>
       <c r="E22">
-        <v>9.025540378424461</v>
+        <v>10.50460699954479</v>
       </c>
       <c r="F22">
-        <v>22.94936512804459</v>
+        <v>18.79795397305142</v>
       </c>
       <c r="G22">
-        <v>2.075347628976708</v>
+        <v>22.80856358069531</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.422743404297878</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.560821147029504</v>
       </c>
       <c r="K22">
-        <v>14.73349926388978</v>
+        <v>13.91137916119602</v>
       </c>
       <c r="L22">
-        <v>7.958874512971255</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.16958343621592</v>
       </c>
       <c r="N22">
-        <v>11.71498098961488</v>
+        <v>8.936372068510154</v>
       </c>
       <c r="O22">
-        <v>17.57779402570999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.50692515563294</v>
+      </c>
+      <c r="Q22">
+        <v>14.2023081098709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.92461430999229</v>
+        <v>17.57702548896419</v>
       </c>
       <c r="C23">
-        <v>6.887296716207378</v>
+        <v>7.790177722613014</v>
       </c>
       <c r="D23">
-        <v>5.692568647998971</v>
+        <v>6.302941087866127</v>
       </c>
       <c r="E23">
-        <v>8.947960640675312</v>
+        <v>10.40321897185237</v>
       </c>
       <c r="F23">
-        <v>22.73272479777446</v>
+        <v>18.63615246370816</v>
       </c>
       <c r="G23">
-        <v>2.077392484488592</v>
+        <v>22.61546125097718</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.349247907153797</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.562660111029057</v>
       </c>
       <c r="K23">
-        <v>14.47751308649225</v>
+        <v>13.91515184580036</v>
       </c>
       <c r="L23">
-        <v>7.862211535205065</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.94484494895116</v>
       </c>
       <c r="N23">
-        <v>11.80732019487193</v>
+        <v>8.827770715121428</v>
       </c>
       <c r="O23">
-        <v>17.49883724033152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.56510948957641</v>
+      </c>
+      <c r="Q23">
+        <v>14.1624267105114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.48320185136273</v>
+        <v>16.29852673439333</v>
       </c>
       <c r="C24">
-        <v>6.865963837796382</v>
+        <v>7.643976530757016</v>
       </c>
       <c r="D24">
-        <v>5.492435033880253</v>
+        <v>5.969682265407168</v>
       </c>
       <c r="E24">
-        <v>8.659605161907267</v>
+        <v>10.01046173059195</v>
       </c>
       <c r="F24">
-        <v>21.934821254834</v>
+        <v>18.03500948705049</v>
       </c>
       <c r="G24">
-        <v>2.08526488709108</v>
+        <v>21.90586144836112</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.064614750429519</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.57738980231553</v>
       </c>
       <c r="K24">
-        <v>13.46822773260387</v>
+        <v>13.94425188736056</v>
       </c>
       <c r="L24">
-        <v>7.493018628469768</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.05844528076887</v>
       </c>
       <c r="N24">
-        <v>12.16019037998768</v>
+        <v>8.404310602890343</v>
       </c>
       <c r="O24">
-        <v>17.22830457207726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.78868462992791</v>
+      </c>
+      <c r="Q24">
+        <v>14.02786499062755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80033990962272</v>
+        <v>14.79720819320208</v>
       </c>
       <c r="C25">
-        <v>6.845591140024858</v>
+        <v>7.481434278822589</v>
       </c>
       <c r="D25">
-        <v>5.266571828468146</v>
+        <v>5.585773474579514</v>
       </c>
       <c r="E25">
-        <v>8.361127056284827</v>
+        <v>9.569206114855353</v>
       </c>
       <c r="F25">
-        <v>21.12408440252942</v>
+        <v>17.41366250839116</v>
       </c>
       <c r="G25">
-        <v>2.094054040800821</v>
+        <v>21.18850025294599</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.743646734630534</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.608919997603412</v>
       </c>
       <c r="K25">
-        <v>12.29387589511987</v>
+        <v>14.00523207517028</v>
       </c>
       <c r="L25">
-        <v>7.089828915185254</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.02773271568675</v>
       </c>
       <c r="N25">
-        <v>12.54866341233165</v>
+        <v>7.922896951898643</v>
       </c>
       <c r="O25">
-        <v>16.99436430464068</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.03698413599675</v>
+      </c>
+      <c r="Q25">
+        <v>13.91635139481394</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.58535077072318</v>
+        <v>13.3935361753394</v>
       </c>
       <c r="C2">
-        <v>7.357666879363463</v>
+        <v>7.180675358960507</v>
       </c>
       <c r="D2">
-        <v>5.282853307845138</v>
+        <v>5.328093464829613</v>
       </c>
       <c r="E2">
-        <v>9.230425737949806</v>
+        <v>9.057323244225799</v>
       </c>
       <c r="F2">
-        <v>16.98149094685708</v>
+        <v>16.63611393571443</v>
       </c>
       <c r="G2">
-        <v>20.70283608830734</v>
+        <v>19.43942536410764</v>
       </c>
       <c r="H2">
-        <v>1.627983731662595</v>
+        <v>1.580064551500034</v>
       </c>
       <c r="J2">
-        <v>8.644662753647474</v>
+        <v>8.989286962958991</v>
       </c>
       <c r="K2">
-        <v>14.07357105166397</v>
+        <v>13.67674262054807</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.86121992334859</v>
       </c>
       <c r="M2">
-        <v>11.20567965820916</v>
+        <v>8.389262597632055</v>
       </c>
       <c r="N2">
-        <v>7.548790935505603</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.21054399790274</v>
       </c>
       <c r="P2">
-        <v>12.22625876539172</v>
+        <v>7.626063482353144</v>
       </c>
       <c r="Q2">
-        <v>13.86143753423887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.16909075298303</v>
+      </c>
+      <c r="S2">
+        <v>13.59286937190959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.69706064953216</v>
+        <v>12.55194600524742</v>
       </c>
       <c r="C3">
-        <v>7.271295258251197</v>
+        <v>7.02786250485352</v>
       </c>
       <c r="D3">
-        <v>5.065458674221961</v>
+        <v>5.094504416624508</v>
       </c>
       <c r="E3">
-        <v>8.992924329769476</v>
+        <v>8.841337120982056</v>
       </c>
       <c r="F3">
-        <v>16.70535007135215</v>
+        <v>16.39396851534322</v>
       </c>
       <c r="G3">
-        <v>20.40060353317178</v>
+        <v>19.21139982167242</v>
       </c>
       <c r="H3">
-        <v>1.809113034399142</v>
+        <v>1.748404212424559</v>
       </c>
       <c r="J3">
-        <v>8.676250074416812</v>
+        <v>8.998267430714462</v>
       </c>
       <c r="K3">
-        <v>14.13352711052038</v>
+        <v>13.7547871823052</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.00689155182775</v>
       </c>
       <c r="M3">
-        <v>10.610033564758</v>
+        <v>8.376207609569848</v>
       </c>
       <c r="N3">
-        <v>7.283992255512035</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.6183130710222</v>
       </c>
       <c r="P3">
-        <v>12.35871068162425</v>
+        <v>7.364855940312025</v>
       </c>
       <c r="Q3">
-        <v>13.84025277507927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.28785389180424</v>
+      </c>
+      <c r="S3">
+        <v>13.59155693353092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.11841901460603</v>
+        <v>12.00379389879938</v>
       </c>
       <c r="C4">
-        <v>7.217057447228342</v>
+        <v>6.93242348819597</v>
       </c>
       <c r="D4">
-        <v>4.926235490555591</v>
+        <v>4.944853557501626</v>
       </c>
       <c r="E4">
-        <v>8.843487414782004</v>
+        <v>8.70530241423786</v>
       </c>
       <c r="F4">
-        <v>16.54433580948406</v>
+        <v>16.25275167160476</v>
       </c>
       <c r="G4">
-        <v>20.22834432970035</v>
+        <v>19.08613129729989</v>
       </c>
       <c r="H4">
-        <v>1.924503098773465</v>
+        <v>1.85568724842186</v>
       </c>
       <c r="J4">
-        <v>8.699132198685618</v>
+        <v>9.005611215890664</v>
       </c>
       <c r="K4">
-        <v>14.1767540382237</v>
+        <v>13.80777417409611</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.10008026420866</v>
       </c>
       <c r="M4">
-        <v>10.22571950227613</v>
+        <v>8.389581129572585</v>
       </c>
       <c r="N4">
-        <v>7.116248833634032</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.23625230338503</v>
       </c>
       <c r="P4">
-        <v>12.44214686723389</v>
+        <v>7.199712873462941</v>
       </c>
       <c r="Q4">
-        <v>13.83482754050146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.36301597182817</v>
+      </c>
+      <c r="S4">
+        <v>13.59721917216517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.87424007125608</v>
+        <v>11.77250694987432</v>
       </c>
       <c r="C5">
-        <v>7.194656457003893</v>
+        <v>6.893157135062859</v>
       </c>
       <c r="D5">
-        <v>4.868097860746259</v>
+        <v>4.882350810839851</v>
       </c>
       <c r="E5">
-        <v>8.78173090296359</v>
+        <v>8.649046613382922</v>
       </c>
       <c r="F5">
-        <v>16.48090487445681</v>
+        <v>16.19709983867005</v>
       </c>
       <c r="G5">
-        <v>20.16149176702429</v>
+        <v>19.03872701543814</v>
       </c>
       <c r="H5">
-        <v>1.972587516855201</v>
+        <v>1.900402572204802</v>
       </c>
       <c r="J5">
-        <v>8.709312745425544</v>
+        <v>9.009056112086199</v>
       </c>
       <c r="K5">
-        <v>14.19593638316414</v>
+        <v>13.83060547782441</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.13900729249084</v>
       </c>
       <c r="M5">
-        <v>10.0645172499996</v>
+        <v>8.400349762967355</v>
       </c>
       <c r="N5">
-        <v>7.046663992124431</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.07601238716914</v>
       </c>
       <c r="P5">
-        <v>12.47668517646162</v>
+        <v>7.131291471033981</v>
       </c>
       <c r="Q5">
-        <v>13.83447390817842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.39421209520591</v>
+      </c>
+      <c r="S5">
+        <v>13.60110641482196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.83318775454199</v>
+        <v>11.73362390369647</v>
       </c>
       <c r="C6">
-        <v>7.190918889430015</v>
+        <v>6.886615326269527</v>
       </c>
       <c r="D6">
-        <v>4.858360725021414</v>
+        <v>4.871882061529192</v>
       </c>
       <c r="E6">
-        <v>8.771425824770995</v>
+        <v>8.639657012397482</v>
       </c>
       <c r="F6">
-        <v>16.47050504424836</v>
+        <v>16.18797379703414</v>
       </c>
       <c r="G6">
-        <v>20.15059262387015</v>
+        <v>19.03107355293269</v>
       </c>
       <c r="H6">
-        <v>1.980636385974115</v>
+        <v>1.907888011793023</v>
       </c>
       <c r="J6">
-        <v>8.711054305800836</v>
+        <v>9.009655221774265</v>
       </c>
       <c r="K6">
-        <v>14.1992149253398</v>
+        <v>13.83447039826346</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.14552887637888</v>
       </c>
       <c r="M6">
-        <v>10.0374752160018</v>
+        <v>8.402456742682448</v>
       </c>
       <c r="N6">
-        <v>7.035037459096645</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.04913296128195</v>
       </c>
       <c r="P6">
-        <v>12.48245288933316</v>
+        <v>7.119864520088193</v>
       </c>
       <c r="Q6">
-        <v>13.83452588762413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.39942653366549</v>
+      </c>
+      <c r="S6">
+        <v>13.60184593769239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.11515988086359</v>
+        <v>11.99794093851444</v>
       </c>
       <c r="C7">
-        <v>7.216756542701414</v>
+        <v>6.929229822150955</v>
       </c>
       <c r="D7">
-        <v>4.925457048622119</v>
+        <v>4.946517445639208</v>
       </c>
       <c r="E7">
-        <v>8.842657960023871</v>
+        <v>8.705440977342676</v>
       </c>
       <c r="F7">
-        <v>16.54347147246526</v>
+        <v>16.24126124913894</v>
       </c>
       <c r="G7">
-        <v>20.22742920384536</v>
+        <v>19.16732102764071</v>
       </c>
       <c r="H7">
-        <v>1.925147266293999</v>
+        <v>1.856732420635265</v>
       </c>
       <c r="J7">
-        <v>8.699266059030036</v>
+        <v>8.973897494507334</v>
       </c>
       <c r="K7">
-        <v>14.17700645281761</v>
+        <v>13.8034497993669</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.09629134109091</v>
       </c>
       <c r="M7">
-        <v>10.22356393953037</v>
+        <v>8.387044623632416</v>
       </c>
       <c r="N7">
-        <v>7.115315264468195</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.23058905533557</v>
       </c>
       <c r="P7">
-        <v>12.44261047819122</v>
+        <v>7.198185197040441</v>
       </c>
       <c r="Q7">
-        <v>13.83481531781441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.36357234462162</v>
+      </c>
+      <c r="S7">
+        <v>13.58994512386698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.28595035640278</v>
+        <v>13.10138470383437</v>
       </c>
       <c r="C8">
-        <v>7.328138626191551</v>
+        <v>7.119496418218898</v>
       </c>
       <c r="D8">
-        <v>5.209110008013026</v>
+        <v>5.256835028621245</v>
       </c>
       <c r="E8">
-        <v>9.149312252306341</v>
+        <v>8.986570398097667</v>
       </c>
       <c r="F8">
-        <v>16.88452983505431</v>
+        <v>16.51613833557279</v>
       </c>
       <c r="G8">
-        <v>20.59586483038432</v>
+        <v>19.62665236426712</v>
       </c>
       <c r="H8">
-        <v>1.689577709301939</v>
+        <v>1.638674043103644</v>
       </c>
       <c r="J8">
-        <v>8.65481745029776</v>
+        <v>8.888511690154971</v>
       </c>
       <c r="K8">
-        <v>14.09288487865778</v>
+        <v>13.68734827035769</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.89767485774491</v>
       </c>
       <c r="M8">
-        <v>11.00420193336371</v>
+        <v>8.369936185815074</v>
       </c>
       <c r="N8">
-        <v>7.458597254251277</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.99924291442285</v>
       </c>
       <c r="P8">
-        <v>12.27149434161887</v>
+        <v>7.535125242497672</v>
       </c>
       <c r="Q8">
-        <v>13.85252999597228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.21033227923131</v>
+      </c>
+      <c r="S8">
+        <v>13.56688864717136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.3193804436526</v>
+        <v>15.0268734237318</v>
       </c>
       <c r="C9">
-        <v>7.536828261902394</v>
+        <v>7.488333177507496</v>
       </c>
       <c r="D9">
-        <v>5.718298706570837</v>
+        <v>5.805013379065858</v>
       </c>
       <c r="E9">
-        <v>9.720092337014256</v>
+        <v>9.505841585771927</v>
       </c>
       <c r="F9">
-        <v>17.61916429064271</v>
+        <v>17.15291201406397</v>
       </c>
       <c r="G9">
-        <v>21.42360785972192</v>
+        <v>20.34184683561005</v>
       </c>
       <c r="H9">
-        <v>1.853678427970472</v>
+        <v>1.873318407941686</v>
       </c>
       <c r="J9">
-        <v>8.596292008521942</v>
+        <v>8.848666951137849</v>
       </c>
       <c r="K9">
-        <v>13.9809170330012</v>
+        <v>13.51836250046818</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.55324038845095</v>
       </c>
       <c r="M9">
-        <v>12.38482483406889</v>
+        <v>8.516739424203523</v>
       </c>
       <c r="N9">
-        <v>8.088229303146178</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.37037162602892</v>
       </c>
       <c r="P9">
-        <v>11.95236235601806</v>
+        <v>8.157505037951509</v>
       </c>
       <c r="Q9">
-        <v>13.94957102963129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.92700589400769</v>
+      </c>
+      <c r="S9">
+        <v>13.60180394936446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.60610987085769</v>
+        <v>16.23473514133619</v>
       </c>
       <c r="C10">
-        <v>7.715548482517747</v>
+        <v>7.769402262643379</v>
       </c>
       <c r="D10">
-        <v>6.078468659172344</v>
+        <v>6.202484196223028</v>
       </c>
       <c r="E10">
-        <v>9.957499535457924</v>
+        <v>9.716477966705025</v>
       </c>
       <c r="F10">
-        <v>18.12058539522561</v>
+        <v>17.52805017852658</v>
       </c>
       <c r="G10">
-        <v>21.96082179370583</v>
+        <v>21.26194648009951</v>
       </c>
       <c r="H10">
-        <v>2.133824778029749</v>
+        <v>2.131040254486858</v>
       </c>
       <c r="J10">
-        <v>8.550756468918232</v>
+        <v>8.638875947134311</v>
       </c>
       <c r="K10">
-        <v>13.87693495412314</v>
+        <v>13.34643176021635</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.26553608816516</v>
       </c>
       <c r="M10">
-        <v>13.29972223911073</v>
+        <v>8.661272925177583</v>
       </c>
       <c r="N10">
-        <v>8.392139135558589</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.26248415905155</v>
       </c>
       <c r="P10">
-        <v>11.73107782134582</v>
+        <v>8.454214855232573</v>
       </c>
       <c r="Q10">
-        <v>14.00646057329591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.73691224238968</v>
+      </c>
+      <c r="S10">
+        <v>13.57148311657789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.74053710532837</v>
+        <v>16.35397874415992</v>
       </c>
       <c r="C11">
-        <v>8.103238016127474</v>
+        <v>8.195262907759339</v>
       </c>
       <c r="D11">
-        <v>6.377722997117536</v>
+        <v>6.530762161731642</v>
       </c>
       <c r="E11">
-        <v>8.777943401107411</v>
+        <v>8.572425909786865</v>
       </c>
       <c r="F11">
-        <v>17.69874562356959</v>
+        <v>17.00581485305032</v>
       </c>
       <c r="G11">
-        <v>21.05609498302274</v>
+        <v>21.37381272150242</v>
       </c>
       <c r="H11">
-        <v>2.967550220579164</v>
+        <v>2.959310305386658</v>
       </c>
       <c r="J11">
-        <v>8.347779171817379</v>
+        <v>8.150010350561633</v>
       </c>
       <c r="K11">
-        <v>13.34693492155806</v>
+        <v>12.81048265610124</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.83659439326946</v>
       </c>
       <c r="M11">
-        <v>13.65157040161097</v>
+        <v>8.327266816653234</v>
       </c>
       <c r="N11">
-        <v>7.446488104450308</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.57692963742908</v>
       </c>
       <c r="P11">
-        <v>11.67460423614229</v>
+        <v>7.495271952444367</v>
       </c>
       <c r="Q11">
-        <v>13.56052647092375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.7132770850783</v>
+      </c>
+      <c r="S11">
+        <v>13.06398077150281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.59042164998462</v>
+        <v>16.21474875652894</v>
       </c>
       <c r="C12">
-        <v>8.436725535621918</v>
+        <v>8.53493311287464</v>
       </c>
       <c r="D12">
-        <v>6.559345568160241</v>
+        <v>6.721717416861028</v>
       </c>
       <c r="E12">
-        <v>7.909056975030371</v>
+        <v>7.738442711863171</v>
       </c>
       <c r="F12">
-        <v>17.22099120504003</v>
+        <v>16.50698064490306</v>
       </c>
       <c r="G12">
-        <v>20.15553494151427</v>
+        <v>20.97105845069807</v>
       </c>
       <c r="H12">
-        <v>4.205621016843356</v>
+        <v>4.198962220094324</v>
       </c>
       <c r="J12">
-        <v>8.182158585422371</v>
+        <v>7.909438713214509</v>
       </c>
       <c r="K12">
-        <v>12.9227165332272</v>
+        <v>12.41681243405171</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.56259330191195</v>
       </c>
       <c r="M12">
-        <v>13.76268419342665</v>
+        <v>8.017350116911068</v>
       </c>
       <c r="N12">
-        <v>6.634547167913661</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.67083549035335</v>
       </c>
       <c r="P12">
-        <v>11.68564510835902</v>
+        <v>6.674616508087894</v>
       </c>
       <c r="Q12">
-        <v>13.16243617495561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.74431637816557</v>
+      </c>
+      <c r="S12">
+        <v>12.66158253083706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.20777440287507</v>
+        <v>15.86941109585238</v>
       </c>
       <c r="C13">
-        <v>8.743137824358422</v>
+        <v>8.837289459101797</v>
       </c>
       <c r="D13">
-        <v>6.66519263685676</v>
+        <v>6.816403554331464</v>
       </c>
       <c r="E13">
-        <v>7.280834239414361</v>
+        <v>7.147688283548559</v>
       </c>
       <c r="F13">
-        <v>16.66170350580354</v>
+        <v>16.01138116913294</v>
       </c>
       <c r="G13">
-        <v>19.18902420326504</v>
+        <v>19.93084630965759</v>
       </c>
       <c r="H13">
-        <v>5.520589092461284</v>
+        <v>5.517039505533246</v>
       </c>
       <c r="J13">
-        <v>8.035196942582349</v>
+        <v>7.851727786919229</v>
       </c>
       <c r="K13">
-        <v>12.55654725259614</v>
+        <v>12.11683536757044</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.38140069634964</v>
       </c>
       <c r="M13">
-        <v>13.6986032640726</v>
+        <v>7.722231737181004</v>
       </c>
       <c r="N13">
-        <v>5.887680242224478</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.61073042632488</v>
       </c>
       <c r="P13">
-        <v>11.74545095401518</v>
+        <v>5.92325060029135</v>
       </c>
       <c r="Q13">
-        <v>12.77524602343048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.8096679972139</v>
+      </c>
+      <c r="S13">
+        <v>12.3294517926588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82916325104836</v>
+        <v>15.52920992862214</v>
       </c>
       <c r="C14">
-        <v>8.94826524924534</v>
+        <v>9.036042169915154</v>
       </c>
       <c r="D14">
-        <v>6.706135377697893</v>
+        <v>6.840133923762863</v>
       </c>
       <c r="E14">
-        <v>7.018910051357713</v>
+        <v>6.914541990380059</v>
       </c>
       <c r="F14">
-        <v>16.23051446026615</v>
+        <v>15.66154361651974</v>
       </c>
       <c r="G14">
-        <v>18.48010949787107</v>
+        <v>18.92363143767978</v>
       </c>
       <c r="H14">
-        <v>6.466559552346086</v>
+        <v>6.465171419181814</v>
       </c>
       <c r="J14">
-        <v>7.94156740361401</v>
+        <v>7.879505299128168</v>
       </c>
       <c r="K14">
-        <v>12.33108228476225</v>
+        <v>11.94968693127359</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.29150457284011</v>
       </c>
       <c r="M14">
-        <v>13.57379612197374</v>
+        <v>7.527641570964219</v>
       </c>
       <c r="N14">
-        <v>5.422360048895215</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.49805988421512</v>
       </c>
       <c r="P14">
-        <v>11.80915762255932</v>
+        <v>5.456627567421447</v>
       </c>
       <c r="Q14">
-        <v>12.51059390884965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.86925181687804</v>
+      </c>
+      <c r="S14">
+        <v>12.12725620419422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68553828803497</v>
+        <v>15.40036802509006</v>
       </c>
       <c r="C15">
-        <v>8.986911101736295</v>
+        <v>9.072687979430691</v>
       </c>
       <c r="D15">
-        <v>6.699678943538369</v>
+        <v>6.825420593750209</v>
       </c>
       <c r="E15">
-        <v>6.981348988859491</v>
+        <v>6.884658895407683</v>
       </c>
       <c r="F15">
-        <v>16.10984816591816</v>
+        <v>15.57623840090443</v>
       </c>
       <c r="G15">
-        <v>18.29648110491553</v>
+        <v>18.56447357732409</v>
       </c>
       <c r="H15">
-        <v>6.682337195185379</v>
+        <v>6.681732228684995</v>
       </c>
       <c r="J15">
-        <v>7.923470269941498</v>
+        <v>7.916735171832914</v>
       </c>
       <c r="K15">
-        <v>12.28912811570699</v>
+        <v>11.92677295410549</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.28437981370534</v>
       </c>
       <c r="M15">
-        <v>13.50533666413119</v>
+        <v>7.48548511022055</v>
       </c>
       <c r="N15">
-        <v>5.317733380266679</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.43663358694383</v>
       </c>
       <c r="P15">
-        <v>11.83292881186329</v>
+        <v>5.352627383754044</v>
       </c>
       <c r="Q15">
-        <v>12.45021952387104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.88869099469292</v>
+      </c>
+      <c r="S15">
+        <v>12.09199306173341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.20607860612893</v>
+        <v>14.9678019728645</v>
       </c>
       <c r="C16">
-        <v>8.846895270938884</v>
+        <v>8.925679678621879</v>
       </c>
       <c r="D16">
-        <v>6.535292385910449</v>
+        <v>6.626867128952766</v>
       </c>
       <c r="E16">
-        <v>6.986551116927346</v>
+        <v>6.893446542691617</v>
       </c>
       <c r="F16">
-        <v>15.98668466485779</v>
+        <v>15.58201964732337</v>
       </c>
       <c r="G16">
-        <v>18.23053532505469</v>
+        <v>17.66482200445829</v>
       </c>
       <c r="H16">
-        <v>6.443272965464708</v>
+        <v>6.441314856278667</v>
       </c>
       <c r="J16">
-        <v>7.972317719768849</v>
+        <v>8.200676484009231</v>
       </c>
       <c r="K16">
-        <v>12.41123367741089</v>
+        <v>12.09090329796041</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.426261331907</v>
       </c>
       <c r="M16">
-        <v>13.13922612954837</v>
+        <v>7.531418159183493</v>
       </c>
       <c r="N16">
-        <v>5.313711672121661</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.10473072697046</v>
       </c>
       <c r="P16">
-        <v>11.90518486117199</v>
+        <v>5.357636520099405</v>
       </c>
       <c r="Q16">
-        <v>12.50034086727674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.9340579761588</v>
+      </c>
+      <c r="S16">
+        <v>12.22479778937387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.04246724470752</v>
+        <v>14.81595396256558</v>
       </c>
       <c r="C17">
-        <v>8.625569544730336</v>
+        <v>8.69495627685421</v>
       </c>
       <c r="D17">
-        <v>6.384123807567193</v>
+        <v>6.462512608969391</v>
       </c>
       <c r="E17">
-        <v>7.098381890344434</v>
+        <v>6.990516586127309</v>
       </c>
       <c r="F17">
-        <v>16.12851811202031</v>
+        <v>15.76446602604421</v>
       </c>
       <c r="G17">
-        <v>18.56604195552801</v>
+        <v>17.63850353884103</v>
       </c>
       <c r="H17">
-        <v>5.689457480806836</v>
+        <v>5.685746929734427</v>
       </c>
       <c r="J17">
-        <v>8.059774612134499</v>
+        <v>8.388315557161407</v>
       </c>
       <c r="K17">
-        <v>12.62271519296377</v>
+        <v>12.30202341555995</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.59019719450664</v>
       </c>
       <c r="M17">
-        <v>12.92200244415294</v>
+        <v>7.661014835347876</v>
       </c>
       <c r="N17">
-        <v>5.546470148466136</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.90292677292909</v>
       </c>
       <c r="P17">
-        <v>11.92831557071627</v>
+        <v>5.597414955586492</v>
       </c>
       <c r="Q17">
-        <v>12.68063391996702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.94247122001585</v>
+      </c>
+      <c r="S17">
+        <v>12.42715396607843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.14059264857757</v>
+        <v>14.90082103326882</v>
       </c>
       <c r="C18">
-        <v>8.325784879811529</v>
+        <v>8.38604945661614</v>
       </c>
       <c r="D18">
-        <v>6.229727980202399</v>
+        <v>6.30667906701908</v>
       </c>
       <c r="E18">
-        <v>7.481064438184669</v>
+        <v>7.341511745847446</v>
       </c>
       <c r="F18">
-        <v>16.50743971682291</v>
+        <v>16.1352877183661</v>
       </c>
       <c r="G18">
-        <v>19.27605058578888</v>
+        <v>18.16712965655239</v>
       </c>
       <c r="H18">
-        <v>4.444376094423617</v>
+        <v>4.451044491671013</v>
       </c>
       <c r="J18">
-        <v>8.189177454304534</v>
+        <v>8.550300560347363</v>
       </c>
       <c r="K18">
-        <v>12.93928255887184</v>
+        <v>12.59064454168912</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.80393995586923</v>
       </c>
       <c r="M18">
-        <v>12.81359768498898</v>
+        <v>7.879463167698156</v>
       </c>
       <c r="N18">
-        <v>6.077601863529574</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.80130187212902</v>
       </c>
       <c r="P18">
-        <v>11.91678828924423</v>
+        <v>6.134746452178833</v>
       </c>
       <c r="Q18">
-        <v>12.99031184035018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.92163365656873</v>
+      </c>
+      <c r="S18">
+        <v>12.72532064356851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.44095473069637</v>
+        <v>15.17095817965139</v>
       </c>
       <c r="C19">
-        <v>8.011594778389838</v>
+        <v>8.060464148251016</v>
       </c>
       <c r="D19">
-        <v>6.087005765095435</v>
+        <v>6.169732957321621</v>
       </c>
       <c r="E19">
-        <v>8.255616297198786</v>
+        <v>8.076233555277531</v>
       </c>
       <c r="F19">
-        <v>17.04177476770583</v>
+        <v>16.63233953609802</v>
       </c>
       <c r="G19">
-        <v>20.22828677805618</v>
+        <v>19.02394032880509</v>
       </c>
       <c r="H19">
-        <v>3.067497248819</v>
+        <v>3.07647118460619</v>
       </c>
       <c r="J19">
-        <v>8.342952296907136</v>
+        <v>8.699061318380368</v>
       </c>
       <c r="K19">
-        <v>13.32688932403545</v>
+        <v>12.93194781024825</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.05001873893181</v>
       </c>
       <c r="M19">
-        <v>12.80295629710858</v>
+        <v>8.160885378737962</v>
       </c>
       <c r="N19">
-        <v>6.880595180618515</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.79245010917806</v>
       </c>
       <c r="P19">
-        <v>11.88462697617142</v>
+        <v>6.942778276327711</v>
       </c>
       <c r="Q19">
-        <v>13.38131523862143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.88276351241771</v>
+      </c>
+      <c r="S19">
+        <v>13.08438472184148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.27611575954743</v>
+        <v>15.93273266172173</v>
       </c>
       <c r="C20">
-        <v>7.670267262157315</v>
+        <v>7.707191995618566</v>
       </c>
       <c r="D20">
-        <v>5.986828407293812</v>
+        <v>6.093537005233201</v>
       </c>
       <c r="E20">
-        <v>9.888705570440443</v>
+        <v>9.651649802650661</v>
       </c>
       <c r="F20">
-        <v>17.98302319244048</v>
+        <v>17.45949337756224</v>
       </c>
       <c r="G20">
-        <v>21.80932210475635</v>
+        <v>20.73317467897932</v>
       </c>
       <c r="H20">
-        <v>2.059530312977858</v>
+        <v>2.063764915155437</v>
       </c>
       <c r="J20">
-        <v>8.560483693539878</v>
+        <v>8.797778899523511</v>
       </c>
       <c r="K20">
-        <v>13.89933268642571</v>
+        <v>13.40362792350987</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.34885533455726</v>
       </c>
       <c r="M20">
-        <v>13.06566637921932</v>
+        <v>8.629500372146836</v>
       </c>
       <c r="N20">
-        <v>8.307880597399045</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.04444938753219</v>
       </c>
       <c r="P20">
-        <v>11.78856088498864</v>
+        <v>8.37350070569769</v>
       </c>
       <c r="Q20">
-        <v>13.98625724631325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.78449500970877</v>
+      </c>
+      <c r="S20">
+        <v>13.60037828358447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.29036484312813</v>
+        <v>16.84319206923289</v>
       </c>
       <c r="C21">
-        <v>7.756786124891206</v>
+        <v>7.817172874874152</v>
       </c>
       <c r="D21">
-        <v>6.227764681421106</v>
+        <v>6.403242292584597</v>
       </c>
       <c r="E21">
-        <v>10.31388044652941</v>
+        <v>10.06746229067827</v>
       </c>
       <c r="F21">
-        <v>18.49576012876624</v>
+        <v>17.67939048199128</v>
       </c>
       <c r="G21">
-        <v>22.44858994871212</v>
+        <v>23.11967474375519</v>
       </c>
       <c r="H21">
-        <v>2.284510520821621</v>
+        <v>2.265181961032058</v>
       </c>
       <c r="J21">
-        <v>8.564941874265317</v>
+        <v>8.163842426315753</v>
       </c>
       <c r="K21">
-        <v>13.91973899832943</v>
+        <v>13.27110530509101</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.13075742083431</v>
       </c>
       <c r="M21">
-        <v>13.74549133259495</v>
+        <v>8.759501487986967</v>
       </c>
       <c r="N21">
-        <v>8.731839889066945</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.65544799119541</v>
       </c>
       <c r="P21">
-        <v>11.61621210015652</v>
+        <v>8.784299671106586</v>
       </c>
       <c r="Q21">
-        <v>14.12901061292601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.64379509388569</v>
+      </c>
+      <c r="S21">
+        <v>13.52996432927235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.8996298527555</v>
+        <v>17.38722519923441</v>
       </c>
       <c r="C22">
-        <v>7.828173692599817</v>
+        <v>7.902708259244823</v>
       </c>
       <c r="D22">
-        <v>6.387837214364516</v>
+        <v>6.60921421250355</v>
       </c>
       <c r="E22">
-        <v>10.50460699954479</v>
+        <v>10.2567610414414</v>
       </c>
       <c r="F22">
-        <v>18.79795397305142</v>
+        <v>17.78013662480516</v>
       </c>
       <c r="G22">
-        <v>22.80856358069531</v>
+        <v>24.74094586517055</v>
       </c>
       <c r="H22">
-        <v>2.422743404297878</v>
+        <v>2.388626258708984</v>
       </c>
       <c r="J22">
-        <v>8.560821147029504</v>
+        <v>7.783199141864253</v>
       </c>
       <c r="K22">
-        <v>13.91137916119602</v>
+        <v>13.15688916695501</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.97264677779703</v>
       </c>
       <c r="M22">
-        <v>14.16958343621592</v>
+        <v>8.829602297814537</v>
       </c>
       <c r="N22">
-        <v>8.936372068510154</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.03289005667446</v>
       </c>
       <c r="P22">
-        <v>11.50692515563294</v>
+        <v>8.979907515734563</v>
       </c>
       <c r="Q22">
-        <v>14.2023081098709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.55833428220267</v>
+      </c>
+      <c r="S22">
+        <v>13.45356684262232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57702548896419</v>
+        <v>17.10449437032352</v>
       </c>
       <c r="C23">
-        <v>7.790177722613014</v>
+        <v>7.863538343688986</v>
       </c>
       <c r="D23">
-        <v>6.302941087866127</v>
+        <v>6.494452992362904</v>
       </c>
       <c r="E23">
-        <v>10.40321897185237</v>
+        <v>10.15350148844801</v>
       </c>
       <c r="F23">
-        <v>18.63615246370816</v>
+        <v>17.75178764300662</v>
       </c>
       <c r="G23">
-        <v>22.61546125097718</v>
+        <v>23.66762374228873</v>
       </c>
       <c r="H23">
-        <v>2.349247907153797</v>
+        <v>2.323704688916399</v>
       </c>
       <c r="J23">
-        <v>8.562660111029057</v>
+        <v>8.035764856383141</v>
       </c>
       <c r="K23">
-        <v>13.91515184580036</v>
+        <v>13.22961916138906</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.06418246565068</v>
       </c>
       <c r="M23">
-        <v>13.94484494895116</v>
+        <v>8.802043864414701</v>
       </c>
       <c r="N23">
-        <v>8.827770715121428</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.83995727971008</v>
       </c>
       <c r="P23">
-        <v>11.56510948957641</v>
+        <v>8.877238905113536</v>
       </c>
       <c r="Q23">
-        <v>14.1624267105114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.60229051120975</v>
+      </c>
+      <c r="S23">
+        <v>13.51296146513959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.29852673439333</v>
+        <v>15.95276047050294</v>
       </c>
       <c r="C24">
-        <v>7.643976530757016</v>
+        <v>7.676950350927103</v>
       </c>
       <c r="D24">
-        <v>5.969682265407168</v>
+        <v>6.076458371862489</v>
       </c>
       <c r="E24">
-        <v>10.01046173059195</v>
+        <v>9.770211234220708</v>
       </c>
       <c r="F24">
-        <v>18.03500948705049</v>
+        <v>17.5094516991947</v>
       </c>
       <c r="G24">
-        <v>21.90586144836112</v>
+        <v>20.80881999321432</v>
       </c>
       <c r="H24">
-        <v>2.064614750429519</v>
+        <v>2.068783000092133</v>
       </c>
       <c r="J24">
-        <v>8.57738980231553</v>
+        <v>8.818189457697759</v>
       </c>
       <c r="K24">
-        <v>13.94425188736056</v>
+        <v>13.44420462913746</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.37953719554635</v>
       </c>
       <c r="M24">
-        <v>13.05844528076887</v>
+        <v>8.660459723902623</v>
       </c>
       <c r="N24">
-        <v>8.404310602890343</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.03782339313842</v>
       </c>
       <c r="P24">
-        <v>11.78868462992791</v>
+        <v>8.470504257500618</v>
       </c>
       <c r="Q24">
-        <v>14.02786499062755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.78326480321215</v>
+      </c>
+      <c r="S24">
+        <v>13.6398265077379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.79720819320208</v>
+        <v>14.53576512214987</v>
       </c>
       <c r="C25">
-        <v>7.481434278822589</v>
+        <v>7.393968850900421</v>
       </c>
       <c r="D25">
-        <v>5.585773474579514</v>
+        <v>5.659179946607379</v>
       </c>
       <c r="E25">
-        <v>9.569206114855353</v>
+        <v>9.367371085429085</v>
       </c>
       <c r="F25">
-        <v>17.41366250839116</v>
+        <v>16.98909563825593</v>
       </c>
       <c r="G25">
-        <v>21.18850025294599</v>
+        <v>20.02297057035079</v>
       </c>
       <c r="H25">
-        <v>1.743646734630534</v>
+        <v>1.771745628553291</v>
       </c>
       <c r="J25">
-        <v>8.608919997603412</v>
+        <v>8.90143390154913</v>
       </c>
       <c r="K25">
-        <v>14.00523207517028</v>
+        <v>13.56583817864888</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.64831776288904</v>
       </c>
       <c r="M25">
-        <v>12.02773271568675</v>
+        <v>8.463854879191416</v>
       </c>
       <c r="N25">
-        <v>7.922896951898643</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.02009969097444</v>
       </c>
       <c r="P25">
-        <v>12.03698413599675</v>
+        <v>7.994601170544723</v>
       </c>
       <c r="Q25">
-        <v>13.91635139481394</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.00131500975707</v>
+      </c>
+      <c r="S25">
+        <v>13.59661703278439</v>
       </c>
     </row>
   </sheetData>
